--- a/QLoc/doc/Ecler mimo1212SG - QLOC .xlsx
+++ b/QLoc/doc/Ecler mimo1212SG - QLOC .xlsx
@@ -14,70 +14,160 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
     <t>IN</t>
   </si>
   <si>
-    <t xml:space="preserve">OUT </t>
-  </si>
-  <si>
-    <t>00.10 Sala średnia z oknem - Nadajnik NVX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00.10 Sala średnia od korytarza - Nadajnik NVX </t>
-  </si>
-  <si>
-    <t>00.12 Sala duża - odbiornik NVX w rack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00.12 Sala duża - mikrofon </t>
-  </si>
-  <si>
-    <t>00.14 Kantyne mikrofon</t>
-  </si>
-  <si>
-    <t>00.14 Kantyna proj przy sali dużej</t>
-  </si>
-  <si>
-    <t>00.14 Kantyna proj 2</t>
-  </si>
-  <si>
-    <t>00.14 TV kantyna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00.10 Sala średnia z oknem </t>
-  </si>
-  <si>
-    <t xml:space="preserve">00.10 Sala średnia od korytarza </t>
-  </si>
-  <si>
-    <t xml:space="preserve">00.12 Sala duża </t>
-  </si>
-  <si>
-    <t>00.14 Kantyna - schody</t>
-  </si>
-  <si>
-    <t>00.14 Kantyna 1</t>
-  </si>
-  <si>
-    <t>00.14 Kantyna 2</t>
-  </si>
-  <si>
-    <t>00.13 Bar</t>
-  </si>
-  <si>
-    <t>00.16 Chill</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ??.?? Sonos</t>
+    <t>00.11</t>
+  </si>
+  <si>
+    <t>00.10</t>
+  </si>
+  <si>
+    <t>00.12</t>
+  </si>
+  <si>
+    <t>00.14 B</t>
+  </si>
+  <si>
+    <t>00.14 C</t>
+  </si>
+  <si>
+    <t>00.13</t>
+  </si>
+  <si>
+    <t>00.16</t>
+  </si>
+  <si>
+    <t>00.14 A</t>
+  </si>
+  <si>
+    <t>schody</t>
+  </si>
+  <si>
+    <t>OUT-01</t>
+  </si>
+  <si>
+    <t>OUT-02</t>
+  </si>
+  <si>
+    <t>OUT-03</t>
+  </si>
+  <si>
+    <t>OUT-04</t>
+  </si>
+  <si>
+    <t>OUT-05</t>
+  </si>
+  <si>
+    <t>OUT-06</t>
+  </si>
+  <si>
+    <t>OUT-07</t>
+  </si>
+  <si>
+    <t>OUT-08</t>
+  </si>
+  <si>
+    <t>00.10 NVX_TX-02</t>
+  </si>
+  <si>
+    <t>00.11 NVX_TX-03</t>
+  </si>
+  <si>
+    <t>IN-01</t>
+  </si>
+  <si>
+    <t>IN-02</t>
+  </si>
+  <si>
+    <t>IN-03</t>
+  </si>
+  <si>
+    <t>IN-04</t>
+  </si>
+  <si>
+    <t>IN-05</t>
+  </si>
+  <si>
+    <t>IN-06</t>
+  </si>
+  <si>
+    <t>IN-07</t>
+  </si>
+  <si>
+    <t>IN-08</t>
+  </si>
+  <si>
+    <t>IN-09</t>
+  </si>
+  <si>
+    <t>00.12 NVX_RX-03</t>
+  </si>
+  <si>
+    <t>00.12 MIC-01</t>
+  </si>
+  <si>
+    <t>00.14 MIC-02</t>
+  </si>
+  <si>
+    <t>00.14 NVX_RX-06</t>
+  </si>
+  <si>
+    <t>00.14 NVX_RX-07</t>
+  </si>
+  <si>
+    <t>00.14 NVX_RX-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sonos ZP-90</t>
+  </si>
+  <si>
+    <t>IN-10</t>
+  </si>
+  <si>
+    <t>IN-11</t>
+  </si>
+  <si>
+    <t>IN-12</t>
+  </si>
+  <si>
+    <t>OUT-09</t>
+  </si>
+  <si>
+    <t>OUT-10</t>
+  </si>
+  <si>
+    <t>OUT-11</t>
+  </si>
+  <si>
+    <t>OUT-12</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>OUT</t>
+  </si>
+  <si>
+    <t>Źródła</t>
+  </si>
+  <si>
+    <t>Strefy Audio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -89,6 +179,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
@@ -114,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -123,6 +220,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -429,123 +529,254 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="1"/>
-    <col min="2" max="2" width="59.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="14.42578125" style="1"/>
+    <col min="1" max="1" width="9.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="C24" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="C25" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>18</v>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/QLoc/doc/Ecler mimo1212SG - QLOC .xlsx
+++ b/QLoc/doc/Ecler mimo1212SG - QLOC .xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="192">
   <si>
     <t>IN</t>
   </si>
@@ -161,6 +161,435 @@
   </si>
   <si>
     <t>Strefy Audio</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>MATRIX</t>
   </si>
 </sst>
 </file>
@@ -191,12 +620,18 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -211,7 +646,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -223,6 +658,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -529,10 +973,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -542,10 +986,24 @@
     <col min="3" max="3" width="17.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="14.42578125" style="1"/>
+    <col min="6" max="6" width="14.42578125" style="1"/>
+    <col min="7" max="7" width="8.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9.42578125" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -554,11 +1012,51 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F2" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -566,8 +1064,48 @@
         <v>18</v>
       </c>
       <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F3" s="5"/>
+      <c r="G3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -575,8 +1113,48 @@
         <v>19</v>
       </c>
       <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F4" s="5"/>
+      <c r="G4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -584,8 +1162,48 @@
         <v>29</v>
       </c>
       <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="5"/>
+      <c r="G5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -593,8 +1211,48 @@
         <v>30</v>
       </c>
       <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="5"/>
+      <c r="G6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -602,8 +1260,48 @@
         <v>31</v>
       </c>
       <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F7" s="5"/>
+      <c r="G7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -611,8 +1309,48 @@
         <v>32</v>
       </c>
       <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F8" s="5"/>
+      <c r="G8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -620,8 +1358,48 @@
         <v>33</v>
       </c>
       <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F9" s="5"/>
+      <c r="G9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -629,8 +1407,48 @@
         <v>34</v>
       </c>
       <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F10" s="5"/>
+      <c r="G10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -638,29 +1456,189 @@
         <v>35</v>
       </c>
       <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F11" s="5"/>
+      <c r="G11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F12" s="5"/>
+      <c r="G12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F13" s="5"/>
+      <c r="G13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>43</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -780,6 +1758,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F2:F14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/QLoc/doc/Ecler mimo1212SG - QLOC .xlsx
+++ b/QLoc/doc/Ecler mimo1212SG - QLOC .xlsx
@@ -28,21 +28,12 @@
     <t>00.12</t>
   </si>
   <si>
-    <t>00.14 B</t>
-  </si>
-  <si>
-    <t>00.14 C</t>
-  </si>
-  <si>
     <t>00.13</t>
   </si>
   <si>
     <t>00.16</t>
   </si>
   <si>
-    <t>00.14 A</t>
-  </si>
-  <si>
     <t>schody</t>
   </si>
   <si>
@@ -112,15 +103,9 @@
     <t>00.14 MIC-02</t>
   </si>
   <si>
-    <t>00.14 NVX_RX-06</t>
-  </si>
-  <si>
     <t>00.14 NVX_RX-07</t>
   </si>
   <si>
-    <t>00.14 NVX_RX-08</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Sonos ZP-90</t>
   </si>
   <si>
@@ -590,6 +575,21 @@
   </si>
   <si>
     <t>MATRIX</t>
+  </si>
+  <si>
+    <t>00.15 NVX_RX-06</t>
+  </si>
+  <si>
+    <t>00.15 NVX_RX-08</t>
+  </si>
+  <si>
+    <t>00.14</t>
+  </si>
+  <si>
+    <t>00.15 L</t>
+  </si>
+  <si>
+    <t>00.15 R</t>
   </si>
 </sst>
 </file>
@@ -660,13 +660,13 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -976,7 +976,7 @@
   <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C1" s="2"/>
     </row>
@@ -1016,637 +1016,637 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="F2" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="G2" s="7"/>
+        <v>186</v>
+      </c>
+      <c r="G2" s="5"/>
       <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="P2" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="F3" s="5"/>
+      <c r="F3" s="7"/>
       <c r="G3" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="M3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="O3" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="F4" s="5"/>
+      <c r="F4" s="7"/>
       <c r="G4" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="F5" s="5"/>
+      <c r="F5" s="7"/>
       <c r="G5" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="F6" s="5"/>
+      <c r="F6" s="7"/>
       <c r="G6" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="F7" s="5"/>
+      <c r="F7" s="7"/>
       <c r="G7" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>32</v>
+        <v>187</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="F8" s="5"/>
+      <c r="F8" s="7"/>
       <c r="G8" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="F9" s="5"/>
+      <c r="F9" s="7"/>
       <c r="G9" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>34</v>
+        <v>188</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="F10" s="5"/>
+      <c r="F10" s="7"/>
       <c r="G10" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="F11" s="5"/>
+      <c r="F11" s="7"/>
       <c r="G11" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="F12" s="7"/>
       <c r="G12" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="F13" s="7"/>
       <c r="G13" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="5"/>
+      <c r="F14" s="7"/>
       <c r="G14" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1654,7 +1654,7 @@
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>2</v>
@@ -1662,7 +1662,7 @@
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>1</v>
@@ -1670,7 +1670,7 @@
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>3</v>
@@ -1678,83 +1678,83 @@
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>8</v>
+        <v>189</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>4</v>
+        <v>190</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>5</v>
+        <v>191</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/QLoc/doc/Ecler mimo1212SG - QLOC .xlsx
+++ b/QLoc/doc/Ecler mimo1212SG - QLOC .xlsx
@@ -976,7 +976,7 @@
   <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/QLoc/doc/Ecler mimo1212SG - QLOC .xlsx
+++ b/QLoc/doc/Ecler mimo1212SG - QLOC .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="615" windowWidth="27495" windowHeight="13740"/>
+    <workbookView xWindow="510" yWindow="675" windowWidth="21840" windowHeight="13680"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -100,9 +100,6 @@
     <t>00.12 MIC-01</t>
   </si>
   <si>
-    <t>00.14 MIC-02</t>
-  </si>
-  <si>
     <t>00.14 NVX_RX-07</t>
   </si>
   <si>
@@ -590,6 +587,9 @@
   </si>
   <si>
     <t>00.15 R</t>
+  </si>
+  <si>
+    <t>00.15 MIC-02</t>
   </si>
 </sst>
 </file>
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" s="2"/>
     </row>
@@ -1016,7 +1016,7 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="F2" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="1" t="s">
@@ -1044,16 +1044,16 @@
         <v>14</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1069,40 +1069,40 @@
         <v>17</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="O3" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="P3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q3" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1118,40 +1118,40 @@
         <v>18</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="N4" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="O4" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q4" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="S4" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1167,40 +1167,40 @@
         <v>19</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1216,40 +1216,40 @@
         <v>20</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1257,7 +1257,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>28</v>
+        <v>191</v>
       </c>
       <c r="C7" s="3"/>
       <c r="F7" s="7"/>
@@ -1265,40 +1265,40 @@
         <v>21</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1306,7 +1306,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C8" s="3"/>
       <c r="F8" s="7"/>
@@ -1314,40 +1314,40 @@
         <v>22</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1355,7 +1355,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="3"/>
       <c r="F9" s="7"/>
@@ -1363,40 +1363,40 @@
         <v>23</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1404,7 +1404,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C10" s="3"/>
       <c r="F10" s="7"/>
@@ -1412,40 +1412,40 @@
         <v>24</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1453,7 +1453,7 @@
         <v>25</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="3"/>
       <c r="F11" s="7"/>
@@ -1461,192 +1461,192 @@
         <v>25</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>6</v>
@@ -1692,10 +1692,10 @@
         <v>11</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1703,10 +1703,10 @@
         <v>12</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1727,34 +1727,34 @@
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
